--- a/public/template/ISBI-TEMPLATE-ASET.xlsx
+++ b/public/template/ISBI-TEMPLATE-ASET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\isbi-asset-si\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C0FE3A-ABE4-4619-B063-7433992474AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1C28D-E1E0-4D5D-BAE4-9B1CA799383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17304" windowHeight="8880" xr2:uid="{AF2BF6C9-6B2C-469C-85CD-D79B0FD13227}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF2BF6C9-6B2C-469C-85CD-D79B0FD13227}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Furniture</t>
+  </si>
+  <si>
+    <t>Harga</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1C8D0B-A241-40E7-B4C1-3348D26BD4FD}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,9 +448,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,10 +465,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -478,6 +485,9 @@
         <v>7</v>
       </c>
       <c r="E2">
+        <v>10000</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
